--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-C5ar1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-C5ar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H2">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I2">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J2">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>82.637399979732</v>
+        <v>0.416844</v>
       </c>
       <c r="N2">
-        <v>82.637399979732</v>
+        <v>1.250532</v>
       </c>
       <c r="O2">
-        <v>0.69902582478922</v>
+        <v>0.003092870113296748</v>
       </c>
       <c r="P2">
-        <v>0.69902582478922</v>
+        <v>0.003093860544621653</v>
       </c>
       <c r="Q2">
-        <v>16100.43265331126</v>
+        <v>81.31761009329399</v>
       </c>
       <c r="R2">
-        <v>16100.43265331126</v>
+        <v>487.905660559764</v>
       </c>
       <c r="S2">
-        <v>0.1872603552987179</v>
+        <v>0.0008167049903060018</v>
       </c>
       <c r="T2">
-        <v>0.1872603552987179</v>
+        <v>0.000613297913554446</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H3">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I3">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J3">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.580549986065</v>
+        <v>98.29520433333334</v>
       </c>
       <c r="N3">
-        <v>35.580549986065</v>
+        <v>294.885613</v>
       </c>
       <c r="O3">
-        <v>0.3009741752107799</v>
+        <v>0.7293239191711137</v>
       </c>
       <c r="P3">
-        <v>0.3009741752107799</v>
+        <v>0.7295574709301883</v>
       </c>
       <c r="Q3">
-        <v>6932.239506070097</v>
+        <v>19175.35360954857</v>
       </c>
       <c r="R3">
-        <v>6932.239506070097</v>
+        <v>115052.1216572914</v>
       </c>
       <c r="S3">
-        <v>0.08062725150777345</v>
+        <v>0.1925856769011464</v>
       </c>
       <c r="T3">
-        <v>0.08062725150777345</v>
+        <v>0.1446206344100942</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>58.8030057710976</v>
+        <v>195.0792385</v>
       </c>
       <c r="H4">
-        <v>58.8030057710976</v>
+        <v>390.158477</v>
       </c>
       <c r="I4">
-        <v>0.08085208918389093</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J4">
-        <v>0.08085208918389093</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>82.637399979732</v>
+        <v>35.86025066666667</v>
       </c>
       <c r="N4">
-        <v>82.637399979732</v>
+        <v>107.580752</v>
       </c>
       <c r="O4">
-        <v>0.69902582478922</v>
+        <v>0.2660733932652578</v>
       </c>
       <c r="P4">
-        <v>0.69902582478922</v>
+        <v>0.2661585980794789</v>
       </c>
       <c r="Q4">
-        <v>4859.327507916681</v>
+        <v>6995.590392472451</v>
       </c>
       <c r="R4">
-        <v>4859.327507916681</v>
+        <v>41973.5423548347</v>
       </c>
       <c r="S4">
-        <v>0.05651769832770093</v>
+        <v>0.07025948717767509</v>
       </c>
       <c r="T4">
-        <v>0.05651769832770093</v>
+        <v>0.05276078560182249</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>58.8030057710976</v>
+        <v>195.0792385</v>
       </c>
       <c r="H5">
-        <v>58.8030057710976</v>
+        <v>390.158477</v>
       </c>
       <c r="I5">
-        <v>0.08085208918389093</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J5">
-        <v>0.08085208918389093</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>35.580549986065</v>
+        <v>0.07405033333333333</v>
       </c>
       <c r="N5">
-        <v>35.580549986065</v>
+        <v>0.222151</v>
       </c>
       <c r="O5">
-        <v>0.3009741752107799</v>
+        <v>0.0005494335119285119</v>
       </c>
       <c r="P5">
-        <v>0.3009741752107799</v>
+        <v>0.0005496094572935718</v>
       </c>
       <c r="Q5">
-        <v>2092.243286169407</v>
+        <v>14.44568263733783</v>
       </c>
       <c r="R5">
-        <v>2092.243286169407</v>
+        <v>86.67409582402699</v>
       </c>
       <c r="S5">
-        <v>0.02433439085618999</v>
+        <v>0.0001450837166113851</v>
       </c>
       <c r="T5">
-        <v>0.02433439085618999</v>
+        <v>0.0001089494269591132</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>142.756572049817</v>
+        <v>195.0792385</v>
       </c>
       <c r="H6">
-        <v>142.756572049817</v>
+        <v>390.158477</v>
       </c>
       <c r="I6">
-        <v>0.1962853249354044</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J6">
-        <v>0.1962853249354044</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>82.637399979732</v>
+        <v>0.1294365</v>
       </c>
       <c r="N6">
-        <v>82.637399979732</v>
+        <v>0.258873</v>
       </c>
       <c r="O6">
-        <v>0.69902582478922</v>
+        <v>0.0009603839384031787</v>
       </c>
       <c r="P6">
-        <v>0.69902582478922</v>
+        <v>0.0006404609884176025</v>
       </c>
       <c r="Q6">
-        <v>11797.03194421616</v>
+        <v>25.25037385410525</v>
       </c>
       <c r="R6">
-        <v>11797.03194421616</v>
+        <v>101.001495416421</v>
       </c>
       <c r="S6">
-        <v>0.1372085111569911</v>
+        <v>0.0002535995131937675</v>
       </c>
       <c r="T6">
-        <v>0.1372085111569911</v>
+        <v>0.0001269589828773515</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>142.756572049817</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H7">
-        <v>142.756572049817</v>
+        <v>187.223767</v>
       </c>
       <c r="I7">
-        <v>0.1962853249354044</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J7">
-        <v>0.1962853249354044</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>35.580549986065</v>
+        <v>0.416844</v>
       </c>
       <c r="N7">
-        <v>35.580549986065</v>
+        <v>1.250532</v>
       </c>
       <c r="O7">
-        <v>0.3009741752107799</v>
+        <v>0.003092870113296748</v>
       </c>
       <c r="P7">
-        <v>0.3009741752107799</v>
+        <v>0.003093860544621653</v>
       </c>
       <c r="Q7">
-        <v>5079.357347657804</v>
+        <v>26.014367977116</v>
       </c>
       <c r="R7">
-        <v>5079.357347657804</v>
+        <v>234.129311794044</v>
       </c>
       <c r="S7">
-        <v>0.05907681377841328</v>
+        <v>0.0002612726089981262</v>
       </c>
       <c r="T7">
-        <v>0.05907681377841328</v>
+        <v>0.0002943007840091188</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>140.754469995774</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H8">
-        <v>140.754469995774</v>
+        <v>187.223767</v>
       </c>
       <c r="I8">
-        <v>0.1935325041959534</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J8">
-        <v>0.1935325041959534</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.637399979732</v>
+        <v>98.29520433333334</v>
       </c>
       <c r="N8">
-        <v>82.637399979732</v>
+        <v>294.885613</v>
       </c>
       <c r="O8">
-        <v>0.69902582478922</v>
+        <v>0.7293239191711137</v>
       </c>
       <c r="P8">
-        <v>0.69902582478922</v>
+        <v>0.7295574709301883</v>
       </c>
       <c r="Q8">
-        <v>11631.58343597596</v>
+        <v>6134.399477773798</v>
       </c>
       <c r="R8">
-        <v>11631.58343597596</v>
+        <v>55209.59529996418</v>
       </c>
       <c r="S8">
-        <v>0.1352842183690995</v>
+        <v>0.06161020546817017</v>
       </c>
       <c r="T8">
-        <v>0.1352842183690995</v>
+        <v>0.06939851767000733</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,119 +971,119 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>140.754469995774</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H9">
-        <v>140.754469995774</v>
+        <v>187.223767</v>
       </c>
       <c r="I9">
-        <v>0.1935325041959534</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J9">
-        <v>0.1935325041959534</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.580549986065</v>
+        <v>35.86025066666667</v>
       </c>
       <c r="N9">
-        <v>35.580549986065</v>
+        <v>107.580752</v>
       </c>
       <c r="O9">
-        <v>0.3009741752107799</v>
+        <v>0.2660733932652578</v>
       </c>
       <c r="P9">
-        <v>0.3009741752107799</v>
+        <v>0.2661585980794789</v>
       </c>
       <c r="Q9">
-        <v>5008.121455446723</v>
+        <v>2237.963738459198</v>
       </c>
       <c r="R9">
-        <v>5008.121455446723</v>
+        <v>20141.67364613278</v>
       </c>
       <c r="S9">
-        <v>0.05824828582685388</v>
+        <v>0.02247675689468193</v>
       </c>
       <c r="T9">
-        <v>0.05824828582685388</v>
+        <v>0.02531810434110488</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>137.199828146352</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H10">
-        <v>137.199828146352</v>
+        <v>187.223767</v>
       </c>
       <c r="I10">
-        <v>0.1886449951977736</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J10">
-        <v>0.1886449951977736</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>82.637399979732</v>
+        <v>0.07405033333333333</v>
       </c>
       <c r="N10">
-        <v>82.637399979732</v>
+        <v>0.222151</v>
       </c>
       <c r="O10">
-        <v>0.69902582478922</v>
+        <v>0.0005494335119285119</v>
       </c>
       <c r="P10">
-        <v>0.69902582478922</v>
+        <v>0.0005496094572935718</v>
       </c>
       <c r="Q10">
-        <v>11337.83707568058</v>
+        <v>4.621327451424111</v>
       </c>
       <c r="R10">
-        <v>11337.83707568058</v>
+        <v>41.591947062817</v>
       </c>
       <c r="S10">
-        <v>0.1318677233604821</v>
+        <v>4.641382336600961E-05</v>
       </c>
       <c r="T10">
-        <v>0.1318677233604821</v>
+        <v>5.228111993008556E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>137.199828146352</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H11">
-        <v>137.199828146352</v>
+        <v>187.223767</v>
       </c>
       <c r="I11">
-        <v>0.1886449951977736</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J11">
-        <v>0.1886449951977736</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>35.580549986065</v>
+        <v>0.1294365</v>
       </c>
       <c r="N11">
-        <v>35.580549986065</v>
+        <v>0.258873</v>
       </c>
       <c r="O11">
-        <v>0.3009741752107799</v>
+        <v>0.0009603839384031787</v>
       </c>
       <c r="P11">
-        <v>0.3009741752107799</v>
+        <v>0.0006404609884176025</v>
       </c>
       <c r="Q11">
-        <v>4881.645343440805</v>
+        <v>8.077863039098501</v>
       </c>
       <c r="R11">
-        <v>4881.645343440805</v>
+        <v>48.467178234591</v>
       </c>
       <c r="S11">
-        <v>0.05677727183729144</v>
+        <v>8.112918035184858E-05</v>
       </c>
       <c r="T11">
-        <v>0.05677727183729144</v>
+        <v>6.092329253373173E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,1233 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>52.9449598765086</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H12">
-        <v>52.9449598765086</v>
+        <v>428.586334</v>
       </c>
       <c r="I12">
-        <v>0.07279747968048636</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J12">
-        <v>0.07279747968048636</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>82.637399979732</v>
+        <v>0.416844</v>
       </c>
       <c r="N12">
-        <v>82.637399979732</v>
+        <v>1.250532</v>
       </c>
       <c r="O12">
-        <v>0.69902582478922</v>
+        <v>0.003092870113296748</v>
       </c>
       <c r="P12">
-        <v>0.69902582478922</v>
+        <v>0.003093860544621653</v>
       </c>
       <c r="Q12">
-        <v>4375.233826225903</v>
+        <v>59.551213936632</v>
       </c>
       <c r="R12">
-        <v>4375.233826225903</v>
+        <v>535.9609254296879</v>
       </c>
       <c r="S12">
-        <v>0.05088731827622846</v>
+        <v>0.0005980964460838048</v>
       </c>
       <c r="T12">
-        <v>0.05088731827622846</v>
+        <v>0.0006737034305681609</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>142.8621113333333</v>
+      </c>
+      <c r="H13">
+        <v>428.586334</v>
+      </c>
+      <c r="I13">
+        <v>0.1933791023142199</v>
+      </c>
+      <c r="J13">
+        <v>0.2177549443006804</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>98.29520433333334</v>
+      </c>
+      <c r="N13">
+        <v>294.885613</v>
+      </c>
+      <c r="O13">
+        <v>0.7293239191711137</v>
+      </c>
+      <c r="P13">
+        <v>0.7295574709301883</v>
+      </c>
+      <c r="Q13">
+        <v>14042.66042500142</v>
+      </c>
+      <c r="R13">
+        <v>126383.9438250127</v>
+      </c>
+      <c r="S13">
+        <v>0.1410360047855986</v>
+      </c>
+      <c r="T13">
+        <v>0.1588647464465484</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>142.8621113333333</v>
+      </c>
+      <c r="H14">
+        <v>428.586334</v>
+      </c>
+      <c r="I14">
+        <v>0.1933791023142199</v>
+      </c>
+      <c r="J14">
+        <v>0.2177549443006804</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>35.86025066666667</v>
+      </c>
+      <c r="N14">
+        <v>107.580752</v>
+      </c>
+      <c r="O14">
+        <v>0.2660733932652578</v>
+      </c>
+      <c r="P14">
+        <v>0.2661585980794789</v>
+      </c>
+      <c r="Q14">
+        <v>5123.071123182574</v>
+      </c>
+      <c r="R14">
+        <v>46107.64010864316</v>
+      </c>
+      <c r="S14">
+        <v>0.05145303393933396</v>
+      </c>
+      <c r="T14">
+        <v>0.05795735069994412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>142.8621113333333</v>
+      </c>
+      <c r="H15">
+        <v>428.586334</v>
+      </c>
+      <c r="I15">
+        <v>0.1933791023142199</v>
+      </c>
+      <c r="J15">
+        <v>0.2177549443006804</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.07405033333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.222151</v>
+      </c>
+      <c r="O15">
+        <v>0.0005494335119285119</v>
+      </c>
+      <c r="P15">
+        <v>0.0005496094572935718</v>
+      </c>
+      <c r="Q15">
+        <v>10.57898696493711</v>
+      </c>
+      <c r="R15">
+        <v>95.21088268443398</v>
+      </c>
+      <c r="S15">
+        <v>0.0001062489593180849</v>
+      </c>
+      <c r="T15">
+        <v>0.0001196801767600889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>142.8621113333333</v>
+      </c>
+      <c r="H16">
+        <v>428.586334</v>
+      </c>
+      <c r="I16">
+        <v>0.1933791023142199</v>
+      </c>
+      <c r="J16">
+        <v>0.2177549443006804</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.1294365</v>
+      </c>
+      <c r="N16">
+        <v>0.258873</v>
+      </c>
+      <c r="O16">
+        <v>0.0009603839384031787</v>
+      </c>
+      <c r="P16">
+        <v>0.0006404609884176025</v>
+      </c>
+      <c r="Q16">
+        <v>18.491571673597</v>
+      </c>
+      <c r="R16">
+        <v>110.949430041582</v>
+      </c>
+      <c r="S16">
+        <v>0.0001857181838854018</v>
+      </c>
+      <c r="T16">
+        <v>0.0001394635468596337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>52.9449598765086</v>
-      </c>
-      <c r="H13">
-        <v>52.9449598765086</v>
-      </c>
-      <c r="I13">
-        <v>0.07279747968048636</v>
-      </c>
-      <c r="J13">
-        <v>0.07279747968048636</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>35.580549986065</v>
-      </c>
-      <c r="N13">
-        <v>35.580549986065</v>
-      </c>
-      <c r="O13">
-        <v>0.3009741752107799</v>
-      </c>
-      <c r="P13">
-        <v>0.3009741752107799</v>
-      </c>
-      <c r="Q13">
-        <v>1883.81079139632</v>
-      </c>
-      <c r="R13">
-        <v>1883.81079139632</v>
-      </c>
-      <c r="S13">
-        <v>0.02191016140425789</v>
-      </c>
-      <c r="T13">
-        <v>0.02191016140425789</v>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>141.6168416666667</v>
+      </c>
+      <c r="H17">
+        <v>424.850525</v>
+      </c>
+      <c r="I17">
+        <v>0.1916934970264942</v>
+      </c>
+      <c r="J17">
+        <v>0.2158568649262854</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.416844</v>
+      </c>
+      <c r="N17">
+        <v>1.250532</v>
+      </c>
+      <c r="O17">
+        <v>0.003092870113296748</v>
+      </c>
+      <c r="P17">
+        <v>0.003093860544621653</v>
+      </c>
+      <c r="Q17">
+        <v>59.03213074769999</v>
+      </c>
+      <c r="R17">
+        <v>531.2891767293</v>
+      </c>
+      <c r="S17">
+        <v>0.0005928830878665829</v>
+      </c>
+      <c r="T17">
+        <v>0.00066783103768116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>141.6168416666667</v>
+      </c>
+      <c r="H18">
+        <v>424.850525</v>
+      </c>
+      <c r="I18">
+        <v>0.1916934970264942</v>
+      </c>
+      <c r="J18">
+        <v>0.2158568649262854</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>98.29520433333334</v>
+      </c>
+      <c r="N18">
+        <v>294.885613</v>
+      </c>
+      <c r="O18">
+        <v>0.7293239191711137</v>
+      </c>
+      <c r="P18">
+        <v>0.7295574709301883</v>
+      </c>
+      <c r="Q18">
+        <v>13920.25638866632</v>
+      </c>
+      <c r="R18">
+        <v>125282.3074979968</v>
+      </c>
+      <c r="S18">
+        <v>0.139806652530979</v>
+      </c>
+      <c r="T18">
+        <v>0.15747998845854</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>141.6168416666667</v>
+      </c>
+      <c r="H19">
+        <v>424.850525</v>
+      </c>
+      <c r="I19">
+        <v>0.1916934970264942</v>
+      </c>
+      <c r="J19">
+        <v>0.2158568649262854</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>35.86025066666667</v>
+      </c>
+      <c r="N19">
+        <v>107.580752</v>
+      </c>
+      <c r="O19">
+        <v>0.2660733932652578</v>
+      </c>
+      <c r="P19">
+        <v>0.2661585980794789</v>
+      </c>
+      <c r="Q19">
+        <v>5078.415440788311</v>
+      </c>
+      <c r="R19">
+        <v>45705.7389670948</v>
+      </c>
+      <c r="S19">
+        <v>0.05100453922072291</v>
+      </c>
+      <c r="T19">
+        <v>0.05745216055461157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>141.6168416666667</v>
+      </c>
+      <c r="H20">
+        <v>424.850525</v>
+      </c>
+      <c r="I20">
+        <v>0.1916934970264942</v>
+      </c>
+      <c r="J20">
+        <v>0.2158568649262854</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.07405033333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.222151</v>
+      </c>
+      <c r="O20">
+        <v>0.0005494335119285119</v>
+      </c>
+      <c r="P20">
+        <v>0.0005496094572935718</v>
+      </c>
+      <c r="Q20">
+        <v>10.48677433103055</v>
+      </c>
+      <c r="R20">
+        <v>94.380968979275</v>
+      </c>
+      <c r="S20">
+        <v>0.0001053228312851244</v>
+      </c>
+      <c r="T20">
+        <v>0.0001186369743852275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>141.6168416666667</v>
+      </c>
+      <c r="H21">
+        <v>424.850525</v>
+      </c>
+      <c r="I21">
+        <v>0.1916934970264942</v>
+      </c>
+      <c r="J21">
+        <v>0.2158568649262854</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.1294365</v>
+      </c>
+      <c r="N21">
+        <v>0.258873</v>
+      </c>
+      <c r="O21">
+        <v>0.0009603839384031787</v>
+      </c>
+      <c r="P21">
+        <v>0.0006404609884176025</v>
+      </c>
+      <c r="Q21">
+        <v>18.3303883263875</v>
+      </c>
+      <c r="R21">
+        <v>109.982329958325</v>
+      </c>
+      <c r="S21">
+        <v>0.0001840993556405825</v>
+      </c>
+      <c r="T21">
+        <v>0.0001382479010674136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>143.783834</v>
+      </c>
+      <c r="H22">
+        <v>431.351502</v>
+      </c>
+      <c r="I22">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J22">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.416844</v>
+      </c>
+      <c r="N22">
+        <v>1.250532</v>
+      </c>
+      <c r="O22">
+        <v>0.003092870113296748</v>
+      </c>
+      <c r="P22">
+        <v>0.003093860544621653</v>
+      </c>
+      <c r="Q22">
+        <v>59.93542849989599</v>
+      </c>
+      <c r="R22">
+        <v>539.418856499064</v>
+      </c>
+      <c r="S22">
+        <v>0.0006019552652351048</v>
+      </c>
+      <c r="T22">
+        <v>0.0006780500534534751</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>143.783834</v>
+      </c>
+      <c r="H23">
+        <v>431.351502</v>
+      </c>
+      <c r="I23">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J23">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>98.29520433333334</v>
+      </c>
+      <c r="N23">
+        <v>294.885613</v>
+      </c>
+      <c r="O23">
+        <v>0.7293239191711137</v>
+      </c>
+      <c r="P23">
+        <v>0.7295574709301883</v>
+      </c>
+      <c r="Q23">
+        <v>14133.26134286008</v>
+      </c>
+      <c r="R23">
+        <v>127199.3520857407</v>
+      </c>
+      <c r="S23">
+        <v>0.1419459457154487</v>
+      </c>
+      <c r="T23">
+        <v>0.1598897154629476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>143.783834</v>
+      </c>
+      <c r="H24">
+        <v>431.351502</v>
+      </c>
+      <c r="I24">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J24">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>35.86025066666667</v>
+      </c>
+      <c r="N24">
+        <v>107.580752</v>
+      </c>
+      <c r="O24">
+        <v>0.2660733932652578</v>
+      </c>
+      <c r="P24">
+        <v>0.2661585980794789</v>
+      </c>
+      <c r="Q24">
+        <v>5156.124329054389</v>
+      </c>
+      <c r="R24">
+        <v>46405.1189614895</v>
+      </c>
+      <c r="S24">
+        <v>0.05178500038731677</v>
+      </c>
+      <c r="T24">
+        <v>0.05833128192174613</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>143.783834</v>
+      </c>
+      <c r="H25">
+        <v>431.351502</v>
+      </c>
+      <c r="I25">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J25">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.07405033333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.222151</v>
+      </c>
+      <c r="O25">
+        <v>0.0005494335119285119</v>
+      </c>
+      <c r="P25">
+        <v>0.0005496094572935718</v>
+      </c>
+      <c r="Q25">
+        <v>10.64724083564466</v>
+      </c>
+      <c r="R25">
+        <v>95.825167520802</v>
+      </c>
+      <c r="S25">
+        <v>0.0001069344599956209</v>
+      </c>
+      <c r="T25">
+        <v>0.0001204523334266879</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>143.783834</v>
+      </c>
+      <c r="H26">
+        <v>431.351502</v>
+      </c>
+      <c r="I26">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J26">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.1294365</v>
+      </c>
+      <c r="N26">
+        <v>0.258873</v>
+      </c>
+      <c r="O26">
+        <v>0.0009603839384031787</v>
+      </c>
+      <c r="P26">
+        <v>0.0006404609884176025</v>
+      </c>
+      <c r="Q26">
+        <v>18.610876229541</v>
+      </c>
+      <c r="R26">
+        <v>111.665257377246</v>
+      </c>
+      <c r="S26">
+        <v>0.0001869164068299019</v>
+      </c>
+      <c r="T26">
+        <v>0.0001403633425515392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H27">
+        <v>106.034229</v>
+      </c>
+      <c r="I27">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J27">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.416844</v>
+      </c>
+      <c r="N27">
+        <v>1.250532</v>
+      </c>
+      <c r="O27">
+        <v>0.003092870113296748</v>
+      </c>
+      <c r="P27">
+        <v>0.003093860544621653</v>
+      </c>
+      <c r="Q27">
+        <v>22.099866076638</v>
+      </c>
+      <c r="R27">
+        <v>132.599196459828</v>
+      </c>
+      <c r="S27">
+        <v>0.0002219577148071279</v>
+      </c>
+      <c r="T27">
+        <v>0.0001666773253552923</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H28">
+        <v>106.034229</v>
+      </c>
+      <c r="I28">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J28">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>98.29520433333334</v>
+      </c>
+      <c r="N28">
+        <v>294.885613</v>
+      </c>
+      <c r="O28">
+        <v>0.7293239191711137</v>
+      </c>
+      <c r="P28">
+        <v>0.7295574709301883</v>
+      </c>
+      <c r="Q28">
+        <v>5211.328102941231</v>
+      </c>
+      <c r="R28">
+        <v>31267.96861764738</v>
+      </c>
+      <c r="S28">
+        <v>0.05233943376977086</v>
+      </c>
+      <c r="T28">
+        <v>0.0393038684820507</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H29">
+        <v>106.034229</v>
+      </c>
+      <c r="I29">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J29">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>35.86025066666667</v>
+      </c>
+      <c r="N29">
+        <v>107.580752</v>
+      </c>
+      <c r="O29">
+        <v>0.2660733932652578</v>
+      </c>
+      <c r="P29">
+        <v>0.2661585980794789</v>
+      </c>
+      <c r="Q29">
+        <v>1901.207015593368</v>
+      </c>
+      <c r="R29">
+        <v>11407.24209356021</v>
+      </c>
+      <c r="S29">
+        <v>0.01909457564552715</v>
+      </c>
+      <c r="T29">
+        <v>0.01433891496024973</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H30">
+        <v>106.034229</v>
+      </c>
+      <c r="I30">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J30">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.07405033333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.222151</v>
+      </c>
+      <c r="O30">
+        <v>0.0005494335119285119</v>
+      </c>
+      <c r="P30">
+        <v>0.0005496094572935718</v>
+      </c>
+      <c r="Q30">
+        <v>3.9259350010965</v>
+      </c>
+      <c r="R30">
+        <v>23.555610006579</v>
+      </c>
+      <c r="S30">
+        <v>3.942972135228708E-05</v>
+      </c>
+      <c r="T30">
+        <v>2.960942583236858E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H31">
+        <v>106.034229</v>
+      </c>
+      <c r="I31">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J31">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
+      <c r="M31">
+        <v>0.1294365</v>
+      </c>
+      <c r="N31">
+        <v>0.258873</v>
+      </c>
+      <c r="O31">
+        <v>0.0009603839384031787</v>
+      </c>
+      <c r="P31">
+        <v>0.0006404609884176025</v>
+      </c>
+      <c r="Q31">
+        <v>6.862349740979251</v>
+      </c>
+      <c r="R31">
+        <v>27.44939896391701</v>
+      </c>
+      <c r="S31">
+        <v>6.892129850167645E-05</v>
+      </c>
+      <c r="T31">
+        <v>3.450392252793258E-05</v>
       </c>
     </row>
   </sheetData>
